--- a/运营数据/成都.xlsx
+++ b/运营数据/成都.xlsx
@@ -198,10 +198,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190722132738394</t>
+          <t>GX20190723231236189</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43668.56041666667</v>
+        <v>43669.96666666667</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18602897585</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18602897585</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43676.416666666664</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,47 +371,47 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43678.416666666664</v>
+        <v>43671.729166666664</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N3" s="19" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O3" s="20" t="inlineStr">
-        <is>
-          <t>已下单</t>
-        </is>
-      </c>
-      <c r="P3" s="21" t="inlineStr">
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M3" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N3" s="20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O3" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P3" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q3" s="22" t="inlineStr">
+      <c r="Q3" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190718102134809</t>
+          <t>GX20190722203205854</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43664.43125</v>
+        <v>43668.85555555556</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>王杰</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>15908153757</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43669.458333333336</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,47 +450,47 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43667.729166666664</v>
+        <v>43670.458333333336</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N4" s="19" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O4" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P4" s="21" t="inlineStr">
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="O4" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P4" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q4" s="22" t="inlineStr">
+      <c r="Q4" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190717132658814</t>
+          <t>GX20190722132738394</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43663.56041666667</v>
+        <v>43668.56041666667</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>强生华</t>
+          <t>18030682333</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>13730858190</t>
+          <t>18030682333</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43672.708333333336</v>
+        <v>43676.416666666664</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,47 +529,47 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43675.708333333336</v>
+        <v>43678.416666666664</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J5" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L5" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M5" s="23" t="inlineStr">
-        <is>
-          <t>川A4P8C7</t>
-        </is>
-      </c>
-      <c r="N5" s="19" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="O5" s="20" t="inlineStr">
-        <is>
-          <t>已排车</t>
-        </is>
-      </c>
-      <c r="P5" s="21" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O5" s="21" t="inlineStr">
+        <is>
+          <t>已下单</t>
+        </is>
+      </c>
+      <c r="P5" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q5" s="22" t="inlineStr">
+      <c r="Q5" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190717001258323</t>
+          <t>GX20190718102134809</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43663.00833333333</v>
+        <v>43664.43125</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15228484266</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15228484266</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43666.385416666664</v>
+        <v>43665.729166666664</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,21 +608,21 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43675.385416666664</v>
+        <v>43667.729166666664</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都明嘉武侯店</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都明嘉武侯店</t>
         </is>
       </c>
       <c r="L6" s="18" t="inlineStr">
@@ -630,25 +630,25 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M6" s="23" t="inlineStr">
-        <is>
-          <t>川AP4537</t>
-        </is>
-      </c>
-      <c r="N6" s="19" t="n">
-        <v>2775.0</v>
-      </c>
-      <c r="O6" s="20" t="inlineStr">
-        <is>
-          <t>已取车</t>
-        </is>
-      </c>
-      <c r="P6" s="21" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P6" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q6" s="22" t="inlineStr">
+      <c r="Q6" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190713135834076</t>
+          <t>GX20190717132658814</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43659.58194444444</v>
+        <v>43663.56041666667</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>刘浩平</t>
+          <t>强生华</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>13610008299</t>
+          <t>13730858190</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43659.666666666664</v>
+        <v>43671.708333333336</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,21 +687,21 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43660.666666666664</v>
+        <v>43675.708333333336</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K7" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L7" s="18" t="inlineStr">
@@ -709,25 +709,25 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M7" s="23" t="inlineStr">
-        <is>
-          <t>川AP4537</t>
-        </is>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="O7" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P7" s="21" t="inlineStr">
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>川A4P8C7</t>
+        </is>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P7" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q7" s="22" t="inlineStr">
+      <c r="Q7" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190711213754512</t>
+          <t>GX20190717001258323</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,32 +745,32 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43657.90069444444</v>
+        <v>43663.00833333333</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>陈彦成</t>
+          <t>13814891420</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>18665626638</t>
+          <t>13814891420</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43658.458333333336</v>
+        <v>43666.385416666664</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
-          <t>440103199010304217</t>
+          <t/>
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43659.458333333336</v>
+        <v>43675.385416666664</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="J8" s="16" t="inlineStr">
@@ -788,25 +788,25 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M8" s="23" t="inlineStr">
+      <c r="M8" s="19" t="inlineStr">
         <is>
           <t>川AP4537</t>
         </is>
       </c>
-      <c r="N8" s="19" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="O8" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P8" s="21" t="inlineStr">
+      <c r="N8" s="20" t="n">
+        <v>2775.0</v>
+      </c>
+      <c r="O8" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P8" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q8" s="22" t="inlineStr">
+      <c r="Q8" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190710142642644</t>
+          <t>GX20190713135834076</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,20 +824,20 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43656.60138888889</v>
+        <v>43659.58194444444</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>刘浩平</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>13610008299</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43659.666666666664</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,47 +845,47 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43660.666666666664</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K9" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M9" s="23" t="inlineStr">
-        <is>
-          <t>川A4G53F</t>
-        </is>
-      </c>
-      <c r="N9" s="19" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O9" s="20" t="inlineStr">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P9" s="21" t="inlineStr">
+      <c r="P9" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q9" s="22" t="inlineStr">
+      <c r="Q9" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190710140806527</t>
+          <t>GX20190711213754512</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,68 +903,68 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43656.58888888889</v>
+        <v>43657.90069444444</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>陈彦成</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>18665626638</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43658.458333333336</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>440103199010304217</t>
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43659.458333333336</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K10" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M10" s="23" t="inlineStr">
-        <is>
-          <t>川AV744P</t>
-        </is>
-      </c>
-      <c r="N10" s="19" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="O10" s="20" t="inlineStr">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="O10" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P10" s="21" t="inlineStr">
+      <c r="P10" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q10" s="22" t="inlineStr">
+      <c r="Q10" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190710134453488</t>
+          <t>GX20190710142642644</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43656.572222222225</v>
+        <v>43656.60138888889</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N11" s="19" t="n">
-        <v>646.0</v>
-      </c>
-      <c r="O11" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P11" s="21" t="inlineStr">
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>川A4G53F</t>
+        </is>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="O11" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P11" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q11" s="22" t="inlineStr">
+      <c r="Q11" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190710125052815</t>
+          <t>GX20190710140806527</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,20 +1061,20 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43656.53472222222</v>
+        <v>43656.58888888889</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>蔡荣海</t>
+          <t>13880224792</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>15622231068</t>
+          <t>13880224792</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43656.625</v>
+        <v>43656.729166666664</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
@@ -1082,21 +1082,21 @@
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43657.625</v>
+        <v>43658.729166666664</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
@@ -1104,25 +1104,25 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N12" s="19" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="O12" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P12" s="21" t="inlineStr">
+      <c r="M12" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="O12" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P12" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q12" s="22" t="inlineStr">
+      <c r="Q12" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142342114</t>
+          <t>GX20190710134453488</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43654.59930555556</v>
+        <v>43656.572222222225</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>钟阳红</t>
+          <t>15928628084</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>18200195598</t>
+          <t>15928628084</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43656.729166666664</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43657.458333333336</v>
+        <v>43658.729166666664</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J13" s="16" t="inlineStr">
@@ -1183,25 +1183,25 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M13" s="23" t="inlineStr">
-        <is>
-          <t>川A4486H</t>
-        </is>
-      </c>
-      <c r="N13" s="19" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="O13" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P13" s="21" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P13" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q13" s="22" t="inlineStr">
+      <c r="Q13" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142026009</t>
+          <t>GX20190710125052815</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43654.59722222222</v>
+        <v>43656.53472222222</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>蔡荣海</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>15622231068</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43656.625</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,21 +1240,21 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43657.479166666664</v>
+        <v>43657.625</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J14" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
@@ -1262,25 +1262,25 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M14" s="23" t="inlineStr">
-        <is>
-          <t>川A4L77N</t>
-        </is>
-      </c>
-      <c r="N14" s="19" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="O14" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P14" s="21" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="O14" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P14" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q14" s="22" t="inlineStr">
+      <c r="Q14" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190708093715305</t>
+          <t>GX20190708142342114</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43654.40069444444</v>
+        <v>43654.59930555556</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>王艺杰</t>
+          <t>钟阳红</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>13590465268</t>
+          <t>18200195598</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
@@ -1319,47 +1319,47 @@
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43670.729166666664</v>
+        <v>43657.458333333336</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J15" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K15" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M15" s="23" t="inlineStr">
-        <is>
-          <t>川A6T42R</t>
-        </is>
-      </c>
-      <c r="N15" s="19" t="n">
-        <v>847.0</v>
-      </c>
-      <c r="O15" s="20" t="inlineStr">
-        <is>
-          <t>已取车</t>
-        </is>
-      </c>
-      <c r="P15" s="21" t="inlineStr">
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>川A4486H</t>
+        </is>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="O15" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P15" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q15" s="22" t="inlineStr">
+      <c r="Q15" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190705160529720</t>
+          <t>GX20190708142026009</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43651.67013888889</v>
+        <v>43654.59722222222</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>15308016205</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>15308016205</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43651.75</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43655.75</v>
+        <v>43657.479166666664</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
@@ -1417,28 +1417,28 @@
       </c>
       <c r="L16" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M16" s="23" t="inlineStr">
-        <is>
-          <t>川A10J4U</t>
-        </is>
-      </c>
-      <c r="N16" s="19" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="O16" s="20" t="inlineStr">
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
+        <is>
+          <t>川A4L77N</t>
+        </is>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="O16" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P16" s="21" t="inlineStr">
+      <c r="P16" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q16" s="22" t="inlineStr">
+      <c r="Q16" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190705144247215</t>
+          <t>GX20190708093715305</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,20 +1456,20 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43651.6125</v>
+        <v>43654.40069444444</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>王艺杰</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>13590465268</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43651.729166666664</v>
+        <v>43665.729166666664</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
@@ -1477,21 +1477,21 @@
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43654.729166666664</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
@@ -1499,25 +1499,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M17" s="23" t="inlineStr">
-        <is>
-          <t>川A10J4U</t>
-        </is>
-      </c>
-      <c r="N17" s="19" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O17" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P17" s="21" t="inlineStr">
+      <c r="M17" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
+        </is>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="O17" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P17" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q17" s="22" t="inlineStr">
+      <c r="Q17" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190705133825756</t>
+          <t>GX20190705160529720</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43651.56805555556</v>
+        <v>43651.67013888889</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43651.708333333336</v>
+        <v>43651.75</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43652.708333333336</v>
+        <v>43655.75</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J18" s="16" t="inlineStr">
@@ -1578,25 +1578,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M18" s="23" t="inlineStr">
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>川A10J4U</t>
         </is>
       </c>
-      <c r="N18" s="19" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="O18" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P18" s="21" t="inlineStr">
+      <c r="N18" s="20" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="O18" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P18" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q18" s="22" t="inlineStr">
+      <c r="Q18" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190705132307364</t>
+          <t>GX20190705144247215</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,16 +1614,16 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43651.55763888889</v>
+        <v>43651.6125</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
@@ -1635,11 +1635,11 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43652.729166666664</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J19" s="16" t="inlineStr">
@@ -1657,25 +1657,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N19" s="19" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="M19" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
+        </is>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O19" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P19" s="21" t="inlineStr">
+      <c r="P19" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q19" s="22" t="inlineStr">
+      <c r="Q19" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GX20190702094619915</t>
+          <t>GX20190705133825756</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1693,20 +1693,20 @@
         </is>
       </c>
       <c r="C20" s="9" t="n">
-        <v>43648.40694444445</v>
+        <v>43651.56805555556</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="F20" s="12" t="n">
-        <v>43648.5</v>
+        <v>43651.708333333336</v>
       </c>
       <c r="G20" s="13" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="H20" s="14" t="n">
-        <v>43649.5</v>
+        <v>43652.708333333336</v>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N20" s="19" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="M20" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
+        </is>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O20" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P20" s="21" t="inlineStr">
+      <c r="P20" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q20" s="22" t="inlineStr">
+      <c r="Q20" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1763,77 +1763,235 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
+          <t>GX20190705132307364</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>43651.55763888889</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>43651.729166666664</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>43652.729166666664</v>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J21" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L21" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="O21" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P21" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q21" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>GX20190702094619915</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>43648.40694444445</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>43648.5</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>43649.5</v>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J22" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L22" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="O22" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P22" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q22" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
           <t>GX20190619125017672</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>短租</t>
         </is>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C23" s="9" t="n">
         <v>43635.53472222222</v>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="E21" s="11" t="inlineStr">
+      <c r="E23" s="11" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F23" s="12" t="n">
         <v>43635.625</v>
       </c>
-      <c r="G21" s="13" t="inlineStr">
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>440881198707272414</t>
         </is>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H23" s="14" t="n">
         <v>43638.625</v>
       </c>
-      <c r="I21" s="15" t="inlineStr">
+      <c r="I23" s="15" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="J21" s="16" t="inlineStr">
-        <is>
-          <t>成都安利捷北辰店</t>
-        </is>
-      </c>
-      <c r="K21" s="17" t="inlineStr">
-        <is>
-          <t>成都安利捷北辰店</t>
-        </is>
-      </c>
-      <c r="L21" s="18" t="inlineStr">
+      <c r="J23" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L23" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M21" s="23" t="inlineStr">
+      <c r="M23" s="19" t="inlineStr">
         <is>
           <t>川A10J4U</t>
         </is>
       </c>
-      <c r="N21" s="19" t="n">
+      <c r="N23" s="20" t="n">
         <v>621.0</v>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O23" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P21" s="21" t="inlineStr">
+      <c r="P23" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q21" s="22" t="inlineStr">
+      <c r="Q23" s="23" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/运营数据/成都.xlsx
+++ b/运营数据/成都.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190723231236189</t>
+          <t>GX20190731095554129</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43669.96666666667</v>
+        <v>43677.413194444445</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>18602897585</t>
+          <t>18980705122</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>18602897585</t>
+          <t>18980705122</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43670.729166666664</v>
+        <v>43677.5</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,39 +371,39 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43671.729166666664</v>
+        <v>43679.5</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>川AV744P</t>
+          <t>川A6T42R</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190722203205854</t>
+          <t>GX20190730181015763</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,60 +429,60 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43668.85555555556</v>
+        <v>43676.756944444445</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>王杰</t>
+          <t>刘超</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>15908153757</t>
+          <t>13502893810</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43669.458333333336</v>
+        <v>43677.458333333336</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>421121199110162412</t>
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43670.458333333336</v>
+        <v>43680.458333333336</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
-        </is>
-      </c>
-      <c r="M4" s="19" t="inlineStr">
-        <is>
-          <t>川AV744P</t>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>133.0</v>
+        <v>21.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已下单</t>
         </is>
       </c>
       <c r="P4" s="22" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190722132738394</t>
+          <t>GX20190723231236189</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43668.56041666667</v>
+        <v>43669.96666666667</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18602897585</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18602897585</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43676.416666666664</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,39 +529,39 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43678.416666666664</v>
+        <v>43671.729166666664</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J5" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L5" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t/>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
         </is>
       </c>
       <c r="N5" s="20" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
-          <t>已下单</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P5" s="22" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190718102134809</t>
+          <t>GX20190722203205854</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43664.43125</v>
+        <v>43668.85555555556</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>王杰</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>15908153757</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43669.458333333336</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,39 +608,39 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43667.729166666664</v>
+        <v>43670.458333333336</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L6" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t/>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>8.0</v>
+        <v>133.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P6" s="22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190717132658814</t>
+          <t>GX20190722132738394</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43663.56041666667</v>
+        <v>43668.56041666667</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>强生华</t>
+          <t>18030682333</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>13730858190</t>
+          <t>18030682333</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43671.708333333336</v>
+        <v>43676.770833333336</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,39 +687,39 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43675.708333333336</v>
+        <v>43678.770833333336</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K7" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L7" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
-          <t>川A4P8C7</t>
+          <t>川A4Z511</t>
         </is>
       </c>
       <c r="N7" s="20" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P7" s="22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190717001258323</t>
+          <t>GX20190718102134809</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43663.00833333333</v>
+        <v>43664.43125</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15228484266</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15228484266</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43666.385416666664</v>
+        <v>43665.729166666664</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,21 +766,21 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43675.385416666664</v>
+        <v>43667.729166666664</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J8" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都明嘉武侯店</t>
         </is>
       </c>
       <c r="K8" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都明嘉武侯店</t>
         </is>
       </c>
       <c r="L8" s="18" t="inlineStr">
@@ -788,17 +788,17 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M8" s="19" t="inlineStr">
-        <is>
-          <t>川AP4537</t>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N8" s="20" t="n">
-        <v>2775.0</v>
+        <v>8.0</v>
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P8" s="22" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190713135834076</t>
+          <t>GX20190717132658814</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,20 +824,20 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43659.58194444444</v>
+        <v>43663.56041666667</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>刘浩平</t>
+          <t>强生华</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>13610008299</t>
+          <t>13730858190</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43659.666666666664</v>
+        <v>43671.708333333336</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43660.666666666664</v>
+        <v>43675.708333333336</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K9" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L9" s="18" t="inlineStr">
@@ -869,11 +869,11 @@
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>川AP4537</t>
+          <t>川A4P8C7</t>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>39.0</v>
+        <v>17.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190711213754512</t>
+          <t>GX20190717001258323</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,32 +903,32 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43657.90069444444</v>
+        <v>43663.00833333333</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>陈彦成</t>
+          <t>13814891420</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>18665626638</t>
+          <t>13814891420</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43658.458333333336</v>
+        <v>43666.385416666664</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
-          <t>440103199010304217</t>
+          <t/>
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43659.458333333336</v>
+        <v>43675.385416666664</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>139.0</v>
+        <v>2775.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190710142642644</t>
+          <t>GX20190713135834076</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43656.60138888889</v>
+        <v>43659.58194444444</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>刘浩平</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>13610008299</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43659.666666666664</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,35 +1003,35 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43660.666666666664</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J11" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K11" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L11" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>川A4G53F</t>
+          <t>川AP4537</t>
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>46.0</v>
+        <v>39.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190710140806527</t>
+          <t>GX20190711213754512</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,56 +1061,56 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43656.58888888889</v>
+        <v>43657.90069444444</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>陈彦成</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>18665626638</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43658.458333333336</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>440103199010304217</t>
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43659.458333333336</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
-          <t>川AV744P</t>
+          <t>川AP4537</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>196.0</v>
+        <v>139.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190710134453488</t>
+          <t>GX20190710142642644</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43656.572222222225</v>
+        <v>43656.60138888889</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
@@ -1183,17 +1183,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M13" s="19" t="inlineStr">
+        <is>
+          <t>川A4G53F</t>
         </is>
       </c>
       <c r="N13" s="20" t="n">
-        <v>646.0</v>
+        <v>46.0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P13" s="22" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190710125052815</t>
+          <t>GX20190710140806527</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43656.53472222222</v>
+        <v>43656.58888888889</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>蔡荣海</t>
+          <t>13880224792</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>15622231068</t>
+          <t>13880224792</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43656.625</v>
+        <v>43656.729166666664</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,21 +1240,21 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43657.625</v>
+        <v>43658.729166666664</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J14" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
@@ -1262,17 +1262,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
         </is>
       </c>
       <c r="N14" s="20" t="n">
-        <v>283.0</v>
+        <v>196.0</v>
       </c>
       <c r="O14" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P14" s="22" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142342114</t>
+          <t>GX20190710134453488</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43654.59930555556</v>
+        <v>43656.572222222225</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>钟阳红</t>
+          <t>15928628084</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>18200195598</t>
+          <t>15928628084</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43656.729166666664</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43657.458333333336</v>
+        <v>43658.729166666664</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J15" s="16" t="inlineStr">
@@ -1341,17 +1341,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M15" s="19" t="inlineStr">
-        <is>
-          <t>川A4486H</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N15" s="20" t="n">
-        <v>159.0</v>
+        <v>646.0</v>
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P15" s="22" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142026009</t>
+          <t>GX20190710125052815</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43654.59722222222</v>
+        <v>43656.53472222222</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>蔡荣海</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>15622231068</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43656.625</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,21 +1398,21 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43657.479166666664</v>
+        <v>43657.625</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K16" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L16" s="18" t="inlineStr">
@@ -1420,17 +1420,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M16" s="19" t="inlineStr">
-        <is>
-          <t>川A4L77N</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>159.0</v>
+        <v>283.0</v>
       </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P16" s="22" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190708093715305</t>
+          <t>GX20190708142342114</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,20 +1456,20 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43654.40069444444</v>
+        <v>43654.59930555556</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>王艺杰</t>
+          <t>钟阳红</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>13590465268</t>
+          <t>18200195598</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
@@ -1477,39 +1477,39 @@
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43670.729166666664</v>
+        <v>43657.458333333336</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
-          <t>川A6T42R</t>
+          <t>川A4486H</t>
         </is>
       </c>
       <c r="N17" s="20" t="n">
-        <v>847.0</v>
+        <v>159.0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P17" s="22" t="inlineStr">
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190705160529720</t>
+          <t>GX20190708142026009</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43651.67013888889</v>
+        <v>43654.59722222222</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>15308016205</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>15308016205</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43651.75</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43655.75</v>
+        <v>43657.479166666664</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J18" s="16" t="inlineStr">
@@ -1575,16 +1575,16 @@
       </c>
       <c r="L18" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
         <is>
-          <t>川A10J4U</t>
+          <t>川A4L77N</t>
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>53.0</v>
+        <v>159.0</v>
       </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190705144247215</t>
+          <t>GX20190708093715305</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,20 +1614,20 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43651.6125</v>
+        <v>43654.40069444444</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>王艺杰</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>13590465268</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
-        <v>43651.729166666664</v>
+        <v>43665.729166666664</v>
       </c>
       <c r="G19" s="13" t="inlineStr">
         <is>
@@ -1635,21 +1635,21 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43654.729166666664</v>
+        <v>43670.729166666664</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J19" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K19" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L19" s="18" t="inlineStr">
@@ -1659,15 +1659,15 @@
       </c>
       <c r="M19" s="19" t="inlineStr">
         <is>
-          <t>川A10J4U</t>
+          <t>川A6T42R</t>
         </is>
       </c>
       <c r="N19" s="20" t="n">
-        <v>9.0</v>
+        <v>847.0</v>
       </c>
       <c r="O19" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P19" s="22" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GX20190705133825756</t>
+          <t>GX20190705160529720</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1693,20 +1693,20 @@
         </is>
       </c>
       <c r="C20" s="9" t="n">
-        <v>43651.56805555556</v>
+        <v>43651.67013888889</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="F20" s="12" t="n">
-        <v>43651.708333333336</v>
+        <v>43651.75</v>
       </c>
       <c r="G20" s="13" t="inlineStr">
         <is>
@@ -1714,11 +1714,11 @@
         </is>
       </c>
       <c r="H20" s="14" t="n">
-        <v>43652.708333333336</v>
+        <v>43655.75</v>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J20" s="16" t="inlineStr">
@@ -1742,11 +1742,11 @@
         </is>
       </c>
       <c r="N20" s="20" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P20" s="22" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GX20190705132307364</t>
+          <t>GX20190705144247215</t>
         </is>
       </c>
       <c r="B21" s="8" t="inlineStr">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="C21" s="9" t="n">
-        <v>43651.55763888889</v>
+        <v>43651.6125</v>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>18728029396</t>
         </is>
       </c>
       <c r="F21" s="12" t="n">
@@ -1793,11 +1793,11 @@
         </is>
       </c>
       <c r="H21" s="14" t="n">
-        <v>43652.729166666664</v>
+        <v>43654.729166666664</v>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J21" s="16" t="inlineStr">
@@ -1815,13 +1815,13 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M21" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
         </is>
       </c>
       <c r="N21" s="20" t="n">
-        <v>283.0</v>
+        <v>9.0</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GX20190702094619915</t>
+          <t>GX20190705133825756</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1851,20 +1851,20 @@
         </is>
       </c>
       <c r="C22" s="9" t="n">
-        <v>43648.40694444445</v>
+        <v>43651.56805555556</v>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="F22" s="12" t="n">
-        <v>43648.5</v>
+        <v>43651.708333333336</v>
       </c>
       <c r="G22" s="13" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="H22" s="14" t="n">
-        <v>43649.5</v>
+        <v>43652.708333333336</v>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
@@ -1894,13 +1894,13 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M22" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
         </is>
       </c>
       <c r="N22" s="20" t="n">
-        <v>214.0</v>
+        <v>33.0</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
@@ -1921,77 +1921,235 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
+          <t>GX20190705132307364</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>43651.55763888889</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>43651.729166666664</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>43652.729166666664</v>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J23" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L23" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="O23" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P23" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q23" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>GX20190702094619915</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>43648.40694444445</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>43648.5</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>43649.5</v>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K24" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L24" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="O24" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P24" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q24" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
           <t>GX20190619125017672</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
         <v>43635.53472222222</v>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E25" s="11" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F25" s="12" t="n">
         <v>43635.625</v>
       </c>
-      <c r="G23" s="13" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr">
         <is>
           <t>440881198707272414</t>
         </is>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H25" s="14" t="n">
         <v>43638.625</v>
       </c>
-      <c r="I23" s="15" t="inlineStr">
+      <c r="I25" s="15" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="J23" s="16" t="inlineStr">
-        <is>
-          <t>成都安利捷北辰店</t>
-        </is>
-      </c>
-      <c r="K23" s="17" t="inlineStr">
-        <is>
-          <t>成都安利捷北辰店</t>
-        </is>
-      </c>
-      <c r="L23" s="18" t="inlineStr">
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K25" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L25" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M23" s="19" t="inlineStr">
+      <c r="M25" s="19" t="inlineStr">
         <is>
           <t>川A10J4U</t>
         </is>
       </c>
-      <c r="N23" s="20" t="n">
+      <c r="N25" s="20" t="n">
         <v>621.0</v>
       </c>
-      <c r="O23" s="21" t="inlineStr">
+      <c r="O25" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P23" s="22" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q23" s="23" t="inlineStr">
+      <c r="P25" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q25" s="23" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/运营数据/成都.xlsx
+++ b/运营数据/成都.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190731095554129</t>
+          <t>GX20190819112006524</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43677.413194444445</v>
+        <v>43696.47222222222</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>18980705122</t>
+          <t>13880777665</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>18980705122</t>
+          <t>13880777665</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43677.5</v>
+        <v>43696.5625</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,11 +371,11 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43679.5</v>
+        <v>43697.5625</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
@@ -390,20 +390,20 @@
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>川A6T42R</t>
+          <t>川A240MN</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已排车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190730181015763</t>
+          <t>GX20190818154305872</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,42 +429,42 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43676.756944444445</v>
+        <v>43695.654861111114</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>刘超</t>
+          <t>陈靓</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>13502893810</t>
+          <t>13980882682</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43677.458333333336</v>
+        <v>43695.6875</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
-          <t>421121199110162412</t>
+          <t/>
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43680.458333333336</v>
+        <v>43699.6875</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
@@ -472,17 +472,17 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
-          <t>已下单</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P4" s="22" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190723231236189</t>
+          <t>GX20190817110732388</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43669.96666666667</v>
+        <v>43694.46319444444</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>18602897585</t>
+          <t>18782352107</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>18602897585</t>
+          <t>18782352107</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43670.729166666664</v>
+        <v>43694.479166666664</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,35 +529,35 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43671.729166666664</v>
+        <v>43696.479166666664</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J5" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L5" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M5" s="19" t="inlineStr">
         <is>
-          <t>川AV744P</t>
+          <t>川A240MN</t>
         </is>
       </c>
       <c r="N5" s="20" t="n">
-        <v>33.0</v>
+        <v>199.0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190722203205854</t>
+          <t>GX20190817091519966</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43668.85555555556</v>
+        <v>43694.385416666664</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>王杰</t>
+          <t>13550158641</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>15908153757</t>
+          <t>13550158641</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43669.458333333336</v>
+        <v>43694.729166666664</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,39 +608,39 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43670.458333333336</v>
+        <v>43697.729166666664</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L6" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M6" s="19" t="inlineStr">
         <is>
-          <t>川AV744P</t>
+          <t>川A840WD</t>
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>133.0</v>
+        <v>10.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P6" s="22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190722132738394</t>
+          <t>GX20190816134651725</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43668.56041666667</v>
+        <v>43693.57361111111</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>18030682333</t>
+          <t>18228055187</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43676.770833333336</v>
+        <v>43694.729166666664</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43678.770833333336</v>
+        <v>43696.729166666664</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
@@ -696,30 +696,30 @@
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="K7" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>成都安利捷北辰店</t>
         </is>
       </c>
       <c r="L7" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
-          <t>川A4Z511</t>
+          <t>川A140LV</t>
         </is>
       </c>
       <c r="N7" s="20" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P7" s="22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190718102134809</t>
+          <t>GX20190816105633911</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43664.43125</v>
+        <v>43693.455555555556</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>18981880935</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>15228484266</t>
+          <t>18981880935</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43694.375</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,21 +766,21 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43667.729166666664</v>
+        <v>43695.375</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J8" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K8" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都明嘉武侯店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L8" s="18" t="inlineStr">
@@ -788,17 +788,17 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>川A4P8C7</t>
         </is>
       </c>
       <c r="N8" s="20" t="n">
-        <v>8.0</v>
+        <v>39.0</v>
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P8" s="22" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190717132658814</t>
+          <t>GX20190815173811175</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43663.56041666667</v>
+        <v>43692.73472222222</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43671.708333333336</v>
+        <v>43692.75</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,11 +845,11 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43675.708333333336</v>
+        <v>43693.75</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
@@ -864,16 +864,16 @@
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>川A4P8C7</t>
+          <t>川A3K97E</t>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>17.0</v>
+        <v>104.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190717001258323</t>
+          <t>GX20190814170432912</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43663.00833333333</v>
+        <v>43691.71111111111</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15388100148</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13814891420</t>
+          <t>15388100148</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43666.385416666664</v>
+        <v>43692.458333333336</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43675.385416666664</v>
+        <v>43697.458333333336</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>川AP4537</t>
+          <t>川A476FH</t>
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>2775.0</v>
+        <v>47.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P10" s="22" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190713135834076</t>
+          <t>GX20190814134056159</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43659.58194444444</v>
+        <v>43691.569444444445</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>刘浩平</t>
+          <t>潘伟城</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>13610008299</t>
+          <t>13622230608</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43659.666666666664</v>
+        <v>43694.729166666664</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,11 +1003,11 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43660.666666666664</v>
+        <v>43700.729166666664</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J11" s="16" t="inlineStr">
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P11" s="22" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190711213754512</t>
+          <t>GX20190813163923832</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,56 +1061,56 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43657.90069444444</v>
+        <v>43690.69375</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>陈彦成</t>
+          <t>杜康</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>18665626638</t>
+          <t>13981899972</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43658.458333333336</v>
+        <v>43690.708333333336</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
-          <t>440103199010304217</t>
+          <t/>
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43659.458333333336</v>
+        <v>43693.708333333336</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
-          <t>川AP4537</t>
+          <t>川A44XT5</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>139.0</v>
+        <v>9.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190710142642644</t>
+          <t>GX20190813160440720</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43656.60138888889</v>
+        <v>43690.669444444444</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>胡磊</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>15882470300</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43691.375</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,21 +1161,21 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43692.375</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J13" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K13" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L13" s="18" t="inlineStr">
@@ -1183,17 +1183,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M13" s="19" t="inlineStr">
-        <is>
-          <t>川A4G53F</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N13" s="20" t="n">
-        <v>46.0</v>
+        <v>283.0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P13" s="22" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190710140806527</t>
+          <t>GX20190813142008777</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43656.58888888889</v>
+        <v>43690.59722222222</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>沈巧</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>13880224792</t>
+          <t>18224091578</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43690.708333333336</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43692.708333333336</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
@@ -1249,26 +1249,26 @@
       </c>
       <c r="J14" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>LEVIN</t>
         </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
         <is>
-          <t>川AV744P</t>
+          <t>川AT6611</t>
         </is>
       </c>
       <c r="N14" s="20" t="n">
-        <v>196.0</v>
+        <v>388.0</v>
       </c>
       <c r="O14" s="21" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190710134453488</t>
+          <t>GX20190812094806394</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43656.572222222225</v>
+        <v>43689.40833333333</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>13308020453</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>15928628084</t>
+          <t>13308020453</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43656.729166666664</v>
+        <v>43690.729166666664</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43658.729166666664</v>
+        <v>43692.729166666664</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
@@ -1328,12 +1328,12 @@
       </c>
       <c r="J15" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K15" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
@@ -1341,17 +1341,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>川AQ46W6</t>
         </is>
       </c>
       <c r="N15" s="20" t="n">
-        <v>646.0</v>
+        <v>46.0</v>
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P15" s="22" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190710125052815</t>
+          <t>GX20190811220039232</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43656.53472222222</v>
+        <v>43688.916666666664</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>蔡荣海</t>
+          <t>13438114464</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>15622231068</t>
+          <t>13438114464</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43656.625</v>
+        <v>43689.375</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,21 +1398,21 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43657.625</v>
+        <v>43691.375</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="K16" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田成都捷瑞羊西店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="L16" s="18" t="inlineStr">
@@ -1420,17 +1420,17 @@
           <t>第八代凯美瑞</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M16" s="19" t="inlineStr">
+        <is>
+          <t>川A7J6K4</t>
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>283.0</v>
+        <v>546.0</v>
       </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P16" s="22" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142342114</t>
+          <t>GX20190811170219127</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,20 +1456,20 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43654.59930555556</v>
+        <v>43688.70972222222</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>钟阳红</t>
+          <t>蒲军</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>18200195598</t>
+          <t>18623534597</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43689.458333333336</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
@@ -1477,21 +1477,21 @@
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43657.458333333336</v>
+        <v>43691.458333333336</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
@@ -1501,15 +1501,15 @@
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
-          <t>川A4486H</t>
+          <t>川A7J6K4</t>
         </is>
       </c>
       <c r="N17" s="20" t="n">
-        <v>159.0</v>
+        <v>546.0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P17" s="22" t="inlineStr">
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190708142026009</t>
+          <t>GX20190811093801770</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43654.59722222222</v>
+        <v>43688.40138888889</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>强生华</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>15308016205</t>
+          <t>13730858190</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43654.729166666664</v>
+        <v>43688.399305555555</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43657.479166666664</v>
+        <v>43691.399305555555</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
@@ -1565,26 +1565,26 @@
       </c>
       <c r="J18" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K18" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L18" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
         <is>
-          <t>川A4L77N</t>
+          <t>川A4P8C7</t>
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>159.0</v>
+        <v>19.0</v>
       </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190708093715305</t>
+          <t>GX20190811093256793</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,20 +1614,20 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43654.40069444444</v>
+        <v>43688.39722222222</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>王艺杰</t>
+          <t>胡磊</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>13590465268</t>
+          <t>15882470300</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
-        <v>43665.729166666664</v>
+        <v>43688.5</v>
       </c>
       <c r="G19" s="13" t="inlineStr">
         <is>
@@ -1635,35 +1635,35 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43670.729166666664</v>
+        <v>43689.5</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J19" s="16" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K19" s="17" t="inlineStr">
         <is>
-          <t>成都三和新元素店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L19" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M19" s="19" t="inlineStr">
         <is>
-          <t>川A6T42R</t>
+          <t>川A44XT5</t>
         </is>
       </c>
       <c r="N19" s="20" t="n">
-        <v>847.0</v>
+        <v>9.0</v>
       </c>
       <c r="O19" s="21" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>GX20190705160529720</t>
+          <t>GX20190811081729377</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -1693,20 +1693,20 @@
         </is>
       </c>
       <c r="C20" s="9" t="n">
-        <v>43651.67013888889</v>
+        <v>43688.345138888886</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>13880777665</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>13880777665</t>
         </is>
       </c>
       <c r="F20" s="12" t="n">
-        <v>43651.75</v>
+        <v>43688.458333333336</v>
       </c>
       <c r="G20" s="13" t="inlineStr">
         <is>
@@ -1714,35 +1714,35 @@
         </is>
       </c>
       <c r="H20" s="14" t="n">
-        <v>43655.75</v>
+        <v>43689.458333333336</v>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J20" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K20" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L20" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
         <is>
-          <t>川A10J4U</t>
+          <t>川A01JD9</t>
         </is>
       </c>
       <c r="N20" s="20" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>GX20190705144247215</t>
+          <t>GX20190811040516792</t>
         </is>
       </c>
       <c r="B21" s="8" t="inlineStr">
@@ -1772,20 +1772,20 @@
         </is>
       </c>
       <c r="C21" s="9" t="n">
-        <v>43651.6125</v>
+        <v>43688.17013888889</v>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>赵莉莉</t>
         </is>
       </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>18728029396</t>
+          <t>18955112614</t>
         </is>
       </c>
       <c r="F21" s="12" t="n">
-        <v>43651.729166666664</v>
+        <v>43695.666666666664</v>
       </c>
       <c r="G21" s="13" t="inlineStr">
         <is>
@@ -1793,39 +1793,39 @@
         </is>
       </c>
       <c r="H21" s="14" t="n">
-        <v>43654.729166666664</v>
+        <v>43697.666666666664</v>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J21" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="K21" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都锦泰东三环店</t>
         </is>
       </c>
       <c r="L21" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
         <is>
-          <t>川A10J4U</t>
+          <t>川A48LE8</t>
         </is>
       </c>
       <c r="N21" s="20" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P21" s="22" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>GX20190705133825756</t>
+          <t>GX20190810153742647</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1851,20 +1851,20 @@
         </is>
       </c>
       <c r="C22" s="9" t="n">
-        <v>43651.56805555556</v>
+        <v>43687.65069444444</v>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>陈维信</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>13980707737</t>
         </is>
       </c>
       <c r="F22" s="12" t="n">
-        <v>43651.708333333336</v>
+        <v>43688.708333333336</v>
       </c>
       <c r="G22" s="13" t="inlineStr">
         <is>
@@ -1872,39 +1872,39 @@
         </is>
       </c>
       <c r="H22" s="14" t="n">
-        <v>43652.708333333336</v>
+        <v>43694.708333333336</v>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J22" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="K22" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>广汽丰田成都捷瑞羊西店</t>
         </is>
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞</t>
         </is>
       </c>
       <c r="M22" s="19" t="inlineStr">
         <is>
-          <t>川A10J4U</t>
+          <t>川A254QN</t>
         </is>
       </c>
       <c r="N22" s="20" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="O22" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P22" s="22" t="inlineStr">
@@ -1921,7 +1921,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>GX20190705132307364</t>
+          <t>GX20190809172420632</t>
         </is>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1930,20 +1930,20 @@
         </is>
       </c>
       <c r="C23" s="9" t="n">
-        <v>43651.55763888889</v>
+        <v>43686.725</v>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>袁吉斌</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>18228055187</t>
+          <t>15388394385</t>
         </is>
       </c>
       <c r="F23" s="12" t="n">
-        <v>43651.729166666664</v>
+        <v>43687.458333333336</v>
       </c>
       <c r="G23" s="13" t="inlineStr">
         <is>
@@ -1951,21 +1951,21 @@
         </is>
       </c>
       <c r="H23" s="14" t="n">
-        <v>43652.729166666664</v>
+        <v>43700.458333333336</v>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J23" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L23" s="18" t="inlineStr">
@@ -1973,17 +1973,17 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M23" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
         </is>
       </c>
       <c r="N23" s="20" t="n">
-        <v>283.0</v>
+        <v>2637.0</v>
       </c>
       <c r="O23" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P23" s="22" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>GX20190702094619915</t>
+          <t>GX20190809110450009</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -2009,20 +2009,20 @@
         </is>
       </c>
       <c r="C24" s="9" t="n">
-        <v>43648.40694444445</v>
+        <v>43686.46111111111</v>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>陈东望</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>18398269544</t>
+          <t>18681255191</t>
         </is>
       </c>
       <c r="F24" s="12" t="n">
-        <v>43648.5</v>
+        <v>43686.5625</v>
       </c>
       <c r="G24" s="13" t="inlineStr">
         <is>
@@ -2030,39 +2030,39 @@
         </is>
       </c>
       <c r="H24" s="14" t="n">
-        <v>43649.5</v>
+        <v>43689.5625</v>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J24" s="16" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="K24" s="17" t="inlineStr">
         <is>
-          <t>成都安利捷北辰店</t>
+          <t>成都三和新元素店</t>
         </is>
       </c>
       <c r="L24" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t/>
+          <t>LEVIN</t>
+        </is>
+      </c>
+      <c r="M24" s="19" t="inlineStr">
+        <is>
+          <t>川AT6611</t>
         </is>
       </c>
       <c r="N24" s="20" t="n">
-        <v>214.0</v>
+        <v>29.0</v>
       </c>
       <c r="O24" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P24" s="22" t="inlineStr">
@@ -2079,77 +2079,3237 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
+          <t>GX20190808154224066</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>43685.65416666667</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>胡磊</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>15882470300</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>43685.708333333336</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>43688.708333333336</v>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K25" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L25" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M25" s="19" t="inlineStr">
+        <is>
+          <t>川A4P8C7</t>
+        </is>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="O25" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P25" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q25" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808154119845</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>43685.65347222222</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>涂涂</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>15008440176</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>43685.583333333336</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>43687.583333333336</v>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J26" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K26" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L26" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M26" s="19" t="inlineStr">
+        <is>
+          <t>川AQ46W6</t>
+        </is>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O26" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P26" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q26" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808152201749</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>43685.64027777778</v>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>刘浩平</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>13610008299</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>43685.729166666664</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>43686.729166666664</v>
+      </c>
+      <c r="I27" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J27" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都明嘉武侯店</t>
+        </is>
+      </c>
+      <c r="K27" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都明嘉武侯店</t>
+        </is>
+      </c>
+      <c r="L27" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="O27" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P27" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q27" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808114852720</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>43685.49166666667</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>强生华</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>13730858190</t>
+        </is>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>43688.729166666664</v>
+      </c>
+      <c r="G28" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>43690.729166666664</v>
+      </c>
+      <c r="I28" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J28" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K28" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L28" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="O28" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P28" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q28" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808114852998</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>43685.49166666667</v>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>强生华</t>
+        </is>
+      </c>
+      <c r="E29" s="11" t="inlineStr">
+        <is>
+          <t>13730858190</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>43688.729166666664</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>43690.729166666664</v>
+      </c>
+      <c r="I29" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J29" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K29" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L29" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="O29" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P29" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q29" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807113624270</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>43684.48333333333</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>黄志华</t>
+        </is>
+      </c>
+      <c r="E30" s="11" t="inlineStr">
+        <is>
+          <t>13770850434</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>43684.520833333336</v>
+      </c>
+      <c r="G30" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>43687.520833333336</v>
+      </c>
+      <c r="I30" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J30" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K30" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L30" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M30" s="19" t="inlineStr">
+        <is>
+          <t>川A4L77N</t>
+        </is>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="O30" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P30" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q30" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807113118039</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>43684.47986111111</v>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>黄志华</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>13770850434</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>43684.5625</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>43687.5625</v>
+      </c>
+      <c r="I31" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J31" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K31" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L31" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="20" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="O31" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P31" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q31" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806102342301</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>43683.43263888889</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>葛成富</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>13086681878</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>43683.520833333336</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>43686.520833333336</v>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J32" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K32" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L32" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M32" s="19" t="inlineStr">
+        <is>
+          <t>川A8H825</t>
+        </is>
+      </c>
+      <c r="N32" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O32" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P32" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q32" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806092441158</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>43683.39166666667</v>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>13688066027</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>13688066027</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>43683.479166666664</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>43686.479166666664</v>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J33" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K33" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L33" s="18" t="inlineStr">
+        <is>
+          <t>LEVIN</t>
+        </is>
+      </c>
+      <c r="M33" s="19" t="inlineStr">
+        <is>
+          <t>川A1Y83F</t>
+        </is>
+      </c>
+      <c r="N33" s="20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O33" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P33" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q33" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806090220157</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>43683.376388888886</v>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>43683.479166666664</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>43684.479166666664</v>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J34" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K34" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L34" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M34" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
+        </is>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P34" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q34" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805105605432</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>43682.455555555556</v>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>涂涂</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>15008440176</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>43682.708333333336</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>43683.375</v>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J35" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K35" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L35" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M35" s="19" t="inlineStr">
+        <is>
+          <t>川A44XT5</t>
+        </is>
+      </c>
+      <c r="N35" s="20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O35" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P35" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q35" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805100812559</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>43682.42222222222</v>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>18384228871</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>18384228871</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>43684.729166666664</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>43686.729166666664</v>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J36" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K36" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L36" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M36" s="19" t="inlineStr">
+        <is>
+          <t>川A4Z511</t>
+        </is>
+      </c>
+      <c r="N36" s="20" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="O36" s="21" t="inlineStr">
+        <is>
+          <t>已排车</t>
+        </is>
+      </c>
+      <c r="P36" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q36" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>GX20190804145924601</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>43681.62430555555</v>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>13899364356</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>13899364356</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>43681.708333333336</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>43686.708333333336</v>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J37" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K37" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L37" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M37" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N37" s="20" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="O37" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q37" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803114031531</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>43680.48611111111</v>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>强生华</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>13730858190</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>43680.708333333336</v>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>43682.708333333336</v>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J38" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K38" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L38" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M38" s="19" t="inlineStr">
+        <is>
+          <t>川A4P8C7</t>
+        </is>
+      </c>
+      <c r="N38" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P38" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q38" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803100947249</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>43680.42291666667</v>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>13880777665</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>13880777665</t>
+        </is>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>43680.5</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>43681.5</v>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K39" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L39" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M39" s="19" t="inlineStr">
+        <is>
+          <t>川A26TH3</t>
+        </is>
+      </c>
+      <c r="N39" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O39" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P39" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q39" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803091819427</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>43680.3875</v>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>苏兴胜</t>
+        </is>
+      </c>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>15198186576</t>
+        </is>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>43680.645833333336</v>
+      </c>
+      <c r="G40" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>43681.645833333336</v>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J40" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K40" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L40" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M40" s="19" t="inlineStr">
+        <is>
+          <t>川A44XT5</t>
+        </is>
+      </c>
+      <c r="N40" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O40" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P40" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q40" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802134853804</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>43679.575</v>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>杜攀嵘</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>13699476006</t>
+        </is>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>43679.666666666664</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>43682.666666666664</v>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J41" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K41" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L41" s="18" t="inlineStr">
+        <is>
+          <t>LEVIN</t>
+        </is>
+      </c>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>川AT6611</t>
+        </is>
+      </c>
+      <c r="N41" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O41" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P41" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q41" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802132551401</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>43679.55902777778</v>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>43679.645833333336</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>43681.645833333336</v>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J42" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K42" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L42" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M42" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
+        </is>
+      </c>
+      <c r="N42" s="20" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="O42" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P42" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q42" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>GX20190731095554129</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>43677.413194444445</v>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>18980705122</t>
+        </is>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>43677.5</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>43679.5</v>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J43" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K43" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L43" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M43" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
+        </is>
+      </c>
+      <c r="N43" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O43" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P43" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q43" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730181015763</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>43676.756944444445</v>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>刘超</t>
+        </is>
+      </c>
+      <c r="E44" s="11" t="inlineStr">
+        <is>
+          <t>13502893810</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>43677.458333333336</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr">
+        <is>
+          <t>421121199110162412</t>
+        </is>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>43680.458333333336</v>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J44" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K44" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L44" s="18" t="inlineStr">
+        <is>
+          <t>LEVIN</t>
+        </is>
+      </c>
+      <c r="M44" s="19" t="inlineStr">
+        <is>
+          <t>川A742HL</t>
+        </is>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="O44" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P44" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q44" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>GX20190723231236189</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>43669.96666666667</v>
+      </c>
+      <c r="D45" s="10" t="inlineStr">
+        <is>
+          <t>18602897585</t>
+        </is>
+      </c>
+      <c r="E45" s="11" t="inlineStr">
+        <is>
+          <t>18602897585</t>
+        </is>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>43670.729166666664</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H45" s="14" t="n">
+        <v>43671.729166666664</v>
+      </c>
+      <c r="I45" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J45" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K45" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L45" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M45" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N45" s="20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O45" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P45" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q45" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>GX20190722203205854</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>43668.85555555556</v>
+      </c>
+      <c r="D46" s="10" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
+      <c r="E46" s="11" t="inlineStr">
+        <is>
+          <t>15908153757</t>
+        </is>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>43669.458333333336</v>
+      </c>
+      <c r="G46" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H46" s="14" t="n">
+        <v>43670.458333333336</v>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J46" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K46" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L46" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M46" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N46" s="20" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="O46" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P46" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q46" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>GX20190722132738394</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>43668.56041666667</v>
+      </c>
+      <c r="D47" s="10" t="inlineStr">
+        <is>
+          <t>18030682333</t>
+        </is>
+      </c>
+      <c r="E47" s="11" t="inlineStr">
+        <is>
+          <t>18030682333</t>
+        </is>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>43676.770833333336</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H47" s="14" t="n">
+        <v>43678.770833333336</v>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J47" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K47" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L47" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M47" s="19" t="inlineStr">
+        <is>
+          <t>川A4Z511</t>
+        </is>
+      </c>
+      <c r="N47" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O47" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P47" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q47" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>GX20190718102134809</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>43664.43125</v>
+      </c>
+      <c r="D48" s="10" t="inlineStr">
+        <is>
+          <t>15228484266</t>
+        </is>
+      </c>
+      <c r="E48" s="11" t="inlineStr">
+        <is>
+          <t>15228484266</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>43665.729166666664</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>43667.729166666664</v>
+      </c>
+      <c r="I48" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J48" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都明嘉武侯店</t>
+        </is>
+      </c>
+      <c r="K48" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都明嘉武侯店</t>
+        </is>
+      </c>
+      <c r="L48" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O48" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P48" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q48" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>GX20190717132658814</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>43663.56041666667</v>
+      </c>
+      <c r="D49" s="10" t="inlineStr">
+        <is>
+          <t>强生华</t>
+        </is>
+      </c>
+      <c r="E49" s="11" t="inlineStr">
+        <is>
+          <t>13730858190</t>
+        </is>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>43671.708333333336</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H49" s="14" t="n">
+        <v>43675.708333333336</v>
+      </c>
+      <c r="I49" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J49" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K49" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L49" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M49" s="19" t="inlineStr">
+        <is>
+          <t>川A4P8C7</t>
+        </is>
+      </c>
+      <c r="N49" s="20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O49" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P49" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q49" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>GX20190717001258323</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>43663.00833333333</v>
+      </c>
+      <c r="D50" s="10" t="inlineStr">
+        <is>
+          <t>13814891420</t>
+        </is>
+      </c>
+      <c r="E50" s="11" t="inlineStr">
+        <is>
+          <t>13814891420</t>
+        </is>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>43666.385416666664</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>43675.385416666664</v>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="J50" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K50" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L50" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M50" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N50" s="20" t="n">
+        <v>2775.0</v>
+      </c>
+      <c r="O50" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P50" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q50" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>GX20190713135834076</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>43659.58194444444</v>
+      </c>
+      <c r="D51" s="10" t="inlineStr">
+        <is>
+          <t>刘浩平</t>
+        </is>
+      </c>
+      <c r="E51" s="11" t="inlineStr">
+        <is>
+          <t>13610008299</t>
+        </is>
+      </c>
+      <c r="F51" s="12" t="n">
+        <v>43659.666666666664</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H51" s="14" t="n">
+        <v>43660.666666666664</v>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J51" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K51" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L51" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M51" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N51" s="20" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="O51" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P51" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q51" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>GX20190711213754512</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>43657.90069444444</v>
+      </c>
+      <c r="D52" s="10" t="inlineStr">
+        <is>
+          <t>陈彦成</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr">
+        <is>
+          <t>18665626638</t>
+        </is>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>43658.458333333336</v>
+      </c>
+      <c r="G52" s="13" t="inlineStr">
+        <is>
+          <t>440103199010304217</t>
+        </is>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>43659.458333333336</v>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J52" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K52" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L52" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M52" s="19" t="inlineStr">
+        <is>
+          <t>川AP4537</t>
+        </is>
+      </c>
+      <c r="N52" s="20" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="O52" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P52" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q52" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710142642644</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>43656.60138888889</v>
+      </c>
+      <c r="D53" s="10" t="inlineStr">
+        <is>
+          <t>15928628084</t>
+        </is>
+      </c>
+      <c r="E53" s="11" t="inlineStr">
+        <is>
+          <t>15928628084</t>
+        </is>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>43656.729166666664</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H53" s="14" t="n">
+        <v>43658.729166666664</v>
+      </c>
+      <c r="I53" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J53" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K53" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L53" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M53" s="19" t="inlineStr">
+        <is>
+          <t>川A4G53F</t>
+        </is>
+      </c>
+      <c r="N53" s="20" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="O53" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P53" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q53" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710140806527</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>43656.58888888889</v>
+      </c>
+      <c r="D54" s="10" t="inlineStr">
+        <is>
+          <t>13880224792</t>
+        </is>
+      </c>
+      <c r="E54" s="11" t="inlineStr">
+        <is>
+          <t>13880224792</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>43656.729166666664</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>43658.729166666664</v>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J54" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K54" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L54" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M54" s="19" t="inlineStr">
+        <is>
+          <t>川AV744P</t>
+        </is>
+      </c>
+      <c r="N54" s="20" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="O54" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P54" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q54" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710134453488</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>43656.572222222225</v>
+      </c>
+      <c r="D55" s="10" t="inlineStr">
+        <is>
+          <t>15928628084</t>
+        </is>
+      </c>
+      <c r="E55" s="11" t="inlineStr">
+        <is>
+          <t>15928628084</t>
+        </is>
+      </c>
+      <c r="F55" s="12" t="n">
+        <v>43656.729166666664</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H55" s="14" t="n">
+        <v>43658.729166666664</v>
+      </c>
+      <c r="I55" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J55" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K55" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L55" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="20" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="O55" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P55" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q55" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710125052815</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>43656.53472222222</v>
+      </c>
+      <c r="D56" s="10" t="inlineStr">
+        <is>
+          <t>蔡荣海</t>
+        </is>
+      </c>
+      <c r="E56" s="11" t="inlineStr">
+        <is>
+          <t>15622231068</t>
+        </is>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>43656.625</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H56" s="14" t="n">
+        <v>43657.625</v>
+      </c>
+      <c r="I56" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J56" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="K56" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田成都捷瑞羊西店</t>
+        </is>
+      </c>
+      <c r="L56" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="20" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="O56" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P56" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q56" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>GX20190708142342114</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>43654.59930555556</v>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
+        <is>
+          <t>钟阳红</t>
+        </is>
+      </c>
+      <c r="E57" s="11" t="inlineStr">
+        <is>
+          <t>18200195598</t>
+        </is>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>43654.729166666664</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H57" s="14" t="n">
+        <v>43657.458333333336</v>
+      </c>
+      <c r="I57" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J57" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K57" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L57" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M57" s="19" t="inlineStr">
+        <is>
+          <t>川A4486H</t>
+        </is>
+      </c>
+      <c r="N57" s="20" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="O57" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P57" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q57" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>GX20190708142026009</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>43654.59722222222</v>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
+        <is>
+          <t>15308016205</t>
+        </is>
+      </c>
+      <c r="E58" s="11" t="inlineStr">
+        <is>
+          <t>15308016205</t>
+        </is>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>43654.729166666664</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H58" s="14" t="n">
+        <v>43657.479166666664</v>
+      </c>
+      <c r="I58" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J58" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K58" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L58" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M58" s="19" t="inlineStr">
+        <is>
+          <t>川A4L77N</t>
+        </is>
+      </c>
+      <c r="N58" s="20" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="O58" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P58" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q58" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>GX20190708093715305</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>43654.40069444444</v>
+      </c>
+      <c r="D59" s="10" t="inlineStr">
+        <is>
+          <t>王艺杰</t>
+        </is>
+      </c>
+      <c r="E59" s="11" t="inlineStr">
+        <is>
+          <t>13590465268</t>
+        </is>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>43665.729166666664</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H59" s="14" t="n">
+        <v>43670.729166666664</v>
+      </c>
+      <c r="I59" s="15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J59" s="16" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="K59" s="17" t="inlineStr">
+        <is>
+          <t>成都三和新元素店</t>
+        </is>
+      </c>
+      <c r="L59" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M59" s="19" t="inlineStr">
+        <is>
+          <t>川A6T42R</t>
+        </is>
+      </c>
+      <c r="N59" s="20" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="O59" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P59" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q59" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>GX20190705160529720</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>43651.67013888889</v>
+      </c>
+      <c r="D60" s="10" t="inlineStr">
+        <is>
+          <t>18728029396</t>
+        </is>
+      </c>
+      <c r="E60" s="11" t="inlineStr">
+        <is>
+          <t>18728029396</t>
+        </is>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>43651.75</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H60" s="14" t="n">
+        <v>43655.75</v>
+      </c>
+      <c r="I60" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J60" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K60" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L60" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M60" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
+        </is>
+      </c>
+      <c r="N60" s="20" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="O60" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P60" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q60" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>GX20190705144247215</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>43651.6125</v>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
+        <is>
+          <t>18728029396</t>
+        </is>
+      </c>
+      <c r="E61" s="11" t="inlineStr">
+        <is>
+          <t>18728029396</t>
+        </is>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>43651.729166666664</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H61" s="14" t="n">
+        <v>43654.729166666664</v>
+      </c>
+      <c r="I61" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J61" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K61" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L61" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M61" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
+        </is>
+      </c>
+      <c r="N61" s="20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O61" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P61" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q61" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>GX20190705133825756</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>43651.56805555556</v>
+      </c>
+      <c r="D62" s="10" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="E62" s="11" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>43651.708333333336</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H62" s="14" t="n">
+        <v>43652.708333333336</v>
+      </c>
+      <c r="I62" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J62" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K62" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L62" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M62" s="19" t="inlineStr">
+        <is>
+          <t>川A10J4U</t>
+        </is>
+      </c>
+      <c r="N62" s="20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O62" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P62" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q62" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>GX20190705132307364</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>43651.55763888889</v>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="E63" s="11" t="inlineStr">
+        <is>
+          <t>18228055187</t>
+        </is>
+      </c>
+      <c r="F63" s="12" t="n">
+        <v>43651.729166666664</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H63" s="14" t="n">
+        <v>43652.729166666664</v>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J63" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K63" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L63" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="20" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="O63" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P63" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q63" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="inlineStr">
+        <is>
+          <t>GX20190702094619915</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>43648.40694444445</v>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="E64" s="11" t="inlineStr">
+        <is>
+          <t>18398269544</t>
+        </is>
+      </c>
+      <c r="F64" s="12" t="n">
+        <v>43648.5</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H64" s="14" t="n">
+        <v>43649.5</v>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J64" s="16" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="K64" s="17" t="inlineStr">
+        <is>
+          <t>成都安利捷北辰店</t>
+        </is>
+      </c>
+      <c r="L64" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="20" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="O64" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P64" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q64" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="inlineStr">
+        <is>
           <t>GX20190619125017672</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="n">
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="n">
         <v>43635.53472222222</v>
       </c>
-      <c r="D25" s="10" t="inlineStr">
+      <c r="D65" s="10" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="E25" s="11" t="inlineStr">
+      <c r="E65" s="11" t="inlineStr">
         <is>
           <t>18811848896</t>
         </is>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F65" s="12" t="n">
         <v>43635.625</v>
       </c>
-      <c r="G25" s="13" t="inlineStr">
+      <c r="G65" s="13" t="inlineStr">
         <is>
           <t>440881198707272414</t>
         </is>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H65" s="14" t="n">
         <v>43638.625</v>
       </c>
-      <c r="I25" s="15" t="inlineStr">
+      <c r="I65" s="15" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="J25" s="16" t="inlineStr">
+      <c r="J65" s="16" t="inlineStr">
         <is>
           <t>成都安利捷北辰店</t>
         </is>
       </c>
-      <c r="K25" s="17" t="inlineStr">
+      <c r="K65" s="17" t="inlineStr">
         <is>
           <t>成都安利捷北辰店</t>
         </is>
       </c>
-      <c r="L25" s="18" t="inlineStr">
+      <c r="L65" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M25" s="19" t="inlineStr">
+      <c r="M65" s="19" t="inlineStr">
         <is>
           <t>川A10J4U</t>
         </is>
       </c>
-      <c r="N25" s="20" t="n">
+      <c r="N65" s="20" t="n">
         <v>621.0</v>
       </c>
-      <c r="O25" s="21" t="inlineStr">
+      <c r="O65" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P25" s="22" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q25" s="23" t="inlineStr">
+      <c r="P65" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q65" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
